--- a/data/trans_dic/IP42B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP42B-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0,0; 16,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>4,08; 23,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,86</t>
+          <t>1,94; 16,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,0; 13,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,18</t>
+          <t>3,66; 19,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,99</t>
+          <t>5,94; 19,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>1,13; 9,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,63</t>
+          <t>6,16; 17,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 35,9</t>
+          <t>5,37; 15,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>7,71%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,97</t>
+          <t>3,18; 17,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 23,73</t>
+          <t>10,14; 27,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 18,7</t>
+          <t>3,54; 14,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,58</t>
+          <t>1,63; 12,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 23,99</t>
+          <t>5,72; 19,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 16,76</t>
+          <t>3,8; 14,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 12,3</t>
+          <t>3,21; 12,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,56; 20,3</t>
+          <t>9,57; 20,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 15,43</t>
+          <t>4,36; 11,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 14,47</t>
+          <t>4,46; 22,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 20,27</t>
+          <t>13,27; 32,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 13,74</t>
+          <t>4,24; 17,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 18,66</t>
+          <t>2,78; 24,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,97; 27,17</t>
+          <t>13,63; 34,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 13,88</t>
+          <t>1,21; 10,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 13,43</t>
+          <t>5,06; 18,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,33; 19,41</t>
+          <t>15,34; 29,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 11,88</t>
+          <t>3,14; 10,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>8,09%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 24,53</t>
+          <t>3,53; 20,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,11; 34,58</t>
+          <t>5,37; 23,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 10,24</t>
+          <t>4,4; 19,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 23,35</t>
+          <t>5,15; 19,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,58; 30,51</t>
+          <t>7,3; 23,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 17,15</t>
+          <t>2,04; 13,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 19,66</t>
+          <t>5,97; 17,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,92; 29,8</t>
+          <t>7,71; 19,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 10,87</t>
+          <t>4,6; 13,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>7,92%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,01; 17,91</t>
+          <t>5,52; 13,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 24,1</t>
+          <t>11,54; 20,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,01; 13,76</t>
+          <t>5,69; 12,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 22,29</t>
+          <t>4,37; 10,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 22,53</t>
+          <t>10,09; 18,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 20,07</t>
+          <t>4,81; 10,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 16,67</t>
+          <t>5,83; 10,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,59; 20,71</t>
+          <t>11,98; 17,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 13,05</t>
+          <t>5,96; 10,07</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,32%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>14,04%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7,49%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>9,19%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>15,79%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>8,43%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,17%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>14,89%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>7,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 11,14</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>10,25; 18,13</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,1; 10,51</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,89; 14,24</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>11,54; 20,83</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5,95; 12,58</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>5,79; 11,01</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>11,98; 17,77</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>6,01; 10,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
